--- a/output/StructureDefinition-stress-level.xlsx
+++ b/output/StructureDefinition-stress-level.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/stress-level</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/stress-level</t>
   </si>
   <si>
     <t>Version</t>
@@ -483,7 +483,7 @@
     <t>context</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://github.com/RicardoLSantos/shorthand/StructureDefinition/measurement-context}
+    <t xml:space="preserve">Extension {https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/measurement-context}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>triggers</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://github.com/RicardoLSantos/shorthand/StructureDefinition/stress-triggers}
+    <t xml:space="preserve">Extension {https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/stress-triggers}
 </t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>coping</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://github.com/RicardoLSantos/shorthand/StructureDefinition/stress-coping}
+    <t xml:space="preserve">Extension {https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/stress-coping}
 </t>
   </si>
   <si>
@@ -1843,7 +1843,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/stress-chronicity-vs</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/stress-chronicity-vs</t>
   </si>
   <si>
     <t>Observation.component:chronicity.dataAbsentReason</t>
@@ -1888,7 +1888,7 @@
     <t>Observation.component:impact.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/stress-impact-vs</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/stress-impact-vs</t>
   </si>
   <si>
     <t>Observation.component:impact.dataAbsentReason</t>
@@ -2226,17 +2226,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2245,30 +2245,30 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.33984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.1328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="36.48046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.6328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-stress-level.xlsx
+++ b/output/StructureDefinition-stress-level.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="598">
   <si>
     <t>Property</t>
   </si>
@@ -1736,9 +1736,6 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>{score}</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -3465,7 +3462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>154</v>
       </c>
@@ -3591,7 +3588,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>160</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>165</v>
       </c>
@@ -4349,7 +4346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>204</v>
       </c>
@@ -4477,7 +4474,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>217</v>
       </c>
@@ -4605,7 +4602,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>228</v>
       </c>
@@ -4733,7 +4730,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>244</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>284</v>
       </c>
@@ -5623,7 +5620,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>303</v>
       </c>
@@ -9297,7 +9294,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>485</v>
       </c>
@@ -10997,46 +10994,46 @@
         <v>89</v>
       </c>
       <c r="S69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>87</v>
@@ -11066,7 +11063,7 @@
         <v>528</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>89</v>
@@ -11077,7 +11074,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>477</v>
@@ -11205,7 +11202,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>481</v>
@@ -11333,7 +11330,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>482</v>
@@ -11459,15 +11456,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>456</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>89</v>
@@ -11565,10 +11562,10 @@
         <v>114</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>89</v>
@@ -11591,7 +11588,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>464</v>
@@ -11715,7 +11712,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>465</v>
@@ -11841,7 +11838,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>466</v>
@@ -11969,7 +11966,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>467</v>
@@ -12017,7 +12014,7 @@
         <v>89</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>89</v>
@@ -12097,7 +12094,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>472</v>
@@ -12223,7 +12220,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>472</v>
@@ -12353,7 +12350,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>497</v>
@@ -12477,7 +12474,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>499</v>
@@ -12603,7 +12600,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>502</v>
@@ -12731,7 +12728,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>512</v>
@@ -12859,7 +12856,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>523</v>
@@ -12985,7 +12982,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>531</v>
@@ -13111,7 +13108,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>540</v>
@@ -13159,46 +13156,46 @@
         <v>89</v>
       </c>
       <c r="S86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF86" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>87</v>
@@ -13228,7 +13225,7 @@
         <v>528</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AQ86" t="s" s="2">
         <v>89</v>
@@ -13239,7 +13236,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>477</v>
@@ -13367,7 +13364,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>481</v>
@@ -13495,7 +13492,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>482</v>
@@ -13621,15 +13618,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>456</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>89</v>
@@ -13753,7 +13750,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>464</v>
@@ -13877,7 +13874,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>465</v>
@@ -14003,7 +14000,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>466</v>
@@ -14131,7 +14128,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>467</v>
@@ -14179,7 +14176,7 @@
         <v>89</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>89</v>
@@ -14259,7 +14256,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>472</v>
@@ -14385,13 +14382,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>472</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>89</v>
@@ -14454,7 +14451,7 @@
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>89</v>
@@ -14513,7 +14510,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>477</v>
@@ -14641,7 +14638,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>481</v>
@@ -14769,7 +14766,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>482</v>
@@ -14895,15 +14892,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>456</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>89</v>
@@ -15027,7 +15024,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>464</v>
@@ -15151,7 +15148,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>465</v>
@@ -15277,7 +15274,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>466</v>
@@ -15405,7 +15402,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>467</v>
@@ -15453,7 +15450,7 @@
         <v>89</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>89</v>
@@ -15533,7 +15530,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>472</v>
@@ -15659,13 +15656,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>472</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>89</v>
@@ -15728,7 +15725,7 @@
       </c>
       <c r="Y106" s="2"/>
       <c r="Z106" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>89</v>
@@ -15787,7 +15784,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>477</v>
@@ -15915,7 +15912,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>481</v>
@@ -16043,7 +16040,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>482</v>
@@ -16171,12 +16168,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AR109">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
